--- a/DOTS_workflow_test/rush/inputsToDots/rushCompiledInputs.xlsx
+++ b/DOTS_workflow_test/rush/inputsToDots/rushCompiledInputs.xlsx
@@ -1,27 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nir_dev\MegaSavageLevel\rush\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nir_dev\MegaSavageLevel\rush\inputsToDots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7DABFC42-CA0C-4AD8-8978-51C7A29CE100}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8811ED9D-4D32-4248-8273-C29ED9089A97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="75" windowWidth="19440" windowHeight="9195"/>
+    <workbookView xWindow="180" yWindow="0" windowWidth="17490" windowHeight="9645" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="peripheral" sheetId="1" r:id="rId1"/>
-    <sheet name="legend" sheetId="2" r:id="rId2"/>
+    <sheet name="peripheral_zone" sheetId="1" r:id="rId1"/>
+    <sheet name="intermediate_zone" sheetId="2" r:id="rId2"/>
+    <sheet name="core_zone" sheetId="3" r:id="rId3"/>
+    <sheet name="corner_z1_zone" sheetId="6" r:id="rId4"/>
+    <sheet name="bottom_z2_zone" sheetId="5" r:id="rId5"/>
+    <sheet name="top_z3_zone" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="83">
   <si>
     <t>Area</t>
   </si>
@@ -56,9 +60,6 @@
     <t>seating_area</t>
   </si>
   <si>
-    <t>Name of Rooms</t>
-  </si>
-  <si>
     <t>Key</t>
   </si>
   <si>
@@ -68,42 +69,6 @@
     <t>ptot_therapy</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>staff_lounge</t>
   </si>
   <si>
@@ -111,13 +76,211 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Radial/Area</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>workstation</t>
+  </si>
+  <si>
+    <t>meds</t>
+  </si>
+  <si>
+    <t>clean_supplies</t>
+  </si>
+  <si>
+    <t>staircase</t>
+  </si>
+  <si>
+    <t>nour</t>
+  </si>
+  <si>
+    <t>linen</t>
+  </si>
+  <si>
+    <t>share office</t>
+  </si>
+  <si>
+    <t>dir_office</t>
+  </si>
+  <si>
+    <t>food_gallery</t>
+  </si>
+  <si>
+    <t>Lifts</t>
+  </si>
+  <si>
+    <t>Zone_Left</t>
+  </si>
+  <si>
+    <t>Zone_Right</t>
+  </si>
+  <si>
+    <t>pA</t>
+  </si>
+  <si>
+    <t>pB</t>
+  </si>
+  <si>
+    <t>pC</t>
+  </si>
+  <si>
+    <t>pD</t>
+  </si>
+  <si>
+    <t>pE</t>
+  </si>
+  <si>
+    <t>pF</t>
+  </si>
+  <si>
+    <t>pG</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>pI</t>
+  </si>
+  <si>
+    <t>pJ</t>
+  </si>
+  <si>
+    <t>pK</t>
+  </si>
+  <si>
+    <t>pL</t>
+  </si>
+  <si>
+    <t>name_A</t>
+  </si>
+  <si>
+    <t>name_B</t>
+  </si>
+  <si>
+    <t>name_C</t>
+  </si>
+  <si>
+    <t>name_D</t>
+  </si>
+  <si>
+    <t>core-A</t>
+  </si>
+  <si>
+    <t>core-B</t>
+  </si>
+  <si>
+    <t>core-C</t>
+  </si>
+  <si>
+    <t>z1.a</t>
+  </si>
+  <si>
+    <t>z1.b</t>
+  </si>
+  <si>
+    <t>z1.c</t>
+  </si>
+  <si>
+    <t>z1.d</t>
+  </si>
+  <si>
+    <t>z1.e</t>
+  </si>
+  <si>
+    <t>z1.f</t>
+  </si>
+  <si>
+    <t>z1.g</t>
+  </si>
+  <si>
+    <t>z2.a</t>
+  </si>
+  <si>
+    <t>z2.b</t>
+  </si>
+  <si>
+    <t>z2.c</t>
+  </si>
+  <si>
+    <t>z2.d</t>
+  </si>
+  <si>
+    <t>z2.e</t>
+  </si>
+  <si>
+    <t>z2.f</t>
+  </si>
+  <si>
+    <t>z2.g</t>
+  </si>
+  <si>
+    <t>z2.h</t>
+  </si>
+  <si>
+    <t>z2.i</t>
+  </si>
+  <si>
+    <t>public_tlt</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>trash_recycle</t>
+  </si>
+  <si>
+    <t>pts</t>
+  </si>
+  <si>
+    <t>Elec</t>
+  </si>
+  <si>
+    <t>z4.a</t>
+  </si>
+  <si>
+    <t>z4.b</t>
+  </si>
+  <si>
+    <t>z4.c</t>
+  </si>
+  <si>
+    <t>z4.d</t>
+  </si>
+  <si>
+    <t>z4.e</t>
+  </si>
+  <si>
+    <t>z4.f</t>
+  </si>
+  <si>
+    <t>trmt</t>
+  </si>
+  <si>
+    <t>respite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,14 +416,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
@@ -449,7 +604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -564,86 +719,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -689,54 +764,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1091,11 +1124,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,444 +1138,326 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>14</v>
       </c>
-      <c r="E2" s="7">
-        <v>100</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7">
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="O2">
         <v>0</v>
       </c>
-      <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>43</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10">
-        <v>100</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10">
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="K3">
         <v>200</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10">
+      <c r="O3">
         <v>200</v>
       </c>
-      <c r="P3" s="14"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10">
+      <c r="G4">
         <v>-200</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10">
+      <c r="O4">
         <v>200</v>
       </c>
-      <c r="P4" s="14"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10">
+      <c r="H5">
         <v>-400</v>
       </c>
-      <c r="I5" s="10">
-        <v>100</v>
-      </c>
-      <c r="J5" s="10">
-        <v>100</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="14"/>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10">
-        <v>100</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="10">
-        <v>100</v>
-      </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="14"/>
+      <c r="J6">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10">
-        <v>100</v>
-      </c>
-      <c r="I7" s="10">
-        <v>100</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="14"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="K8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="G12">
+        <v>200</v>
+      </c>
+      <c r="P12">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="9">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10">
-        <v>200</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10">
-        <v>200</v>
-      </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="14"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="14"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9">
-        <v>3</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10">
-        <v>100</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10">
-        <v>-400</v>
-      </c>
-      <c r="N10" s="10"/>
-      <c r="P10" s="14"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="9">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10">
-        <v>100</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="14"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10">
-        <v>200</v>
-      </c>
-      <c r="G12" s="10">
-        <v>200</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="14">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="O13">
         <v>-200</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="12">
-        <v>1</v>
-      </c>
-      <c r="D13" s="12">
-        <v>1</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15">
-        <v>-200</v>
-      </c>
-      <c r="P13" s="16"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1550,156 +1465,799 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C13"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="1" max="4" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B64F9B9-4EED-4714-A769-CE4C258E2937}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
       </c>
       <c r="C2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>-200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E5F9A1-D72B-4AB8-B4D1-F671CAAC4C28}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
+      <c r="E2">
+        <v>-200</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
       <c r="C3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
       </c>
       <c r="C4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
       </c>
       <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>0.75</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>0.75</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+        <v>0.75</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400120A5-7E0F-4F7E-9C95-37F80E75EF31}">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2">
+        <v>1.5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6">
+        <v>1.5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7">
+        <v>0.75</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8">
+        <v>0.75</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>-200</v>
+      </c>
+      <c r="F9">
+        <v>-200</v>
+      </c>
+      <c r="G9">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D66683-C5CA-4C8A-A4F8-B690C76C38CD}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4">
+        <v>0.75</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
